--- a/priv/assets/files/finance-import-sample-raw.xlsx
+++ b/priv/assets/files/finance-import-sample-raw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16160"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,44 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>SourceType</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
   <si>
     <t>InOrOut</t>
   </si>
   <si>
+    <t>CounterParty</t>
+  </si>
+  <si>
+    <t>CounterBank</t>
+  </si>
+  <si>
+    <t>CounterAccount</t>
+  </si>
+  <si>
+    <t>GoodsComment</t>
+  </si>
+  <si>
+    <t>PayMethod</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>PayStatus</t>
+  </si>
+  <si>
+    <t>TradeType</t>
+  </si>
+  <si>
     <t>TradeOrderNo</t>
   </si>
   <si>
-    <t>CounterorderNo</t>
-  </si>
-  <si>
-    <t>CounterParty</t>
-  </si>
-  <si>
-    <t>TradeType</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Balance</t>
+    <t>CounterOrderNo</t>
   </si>
   <si>
     <t>TradeTime</t>
+  </si>
+  <si>
+    <t>BillComment</t>
+  </si>
+  <si>
+    <t>王存伟</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>网上快捷支付</t>
+  </si>
+  <si>
+    <t>银企对接</t>
+  </si>
+  <si>
+    <t>支付宝-胡文华</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>网银在线</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -656,8 +705,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,26 +1237,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="20.9903846153846" customWidth="1"/>
-    <col min="2" max="2" width="19.7019230769231" customWidth="1"/>
-    <col min="3" max="3" width="22.4230769230769" customWidth="1"/>
-    <col min="4" max="4" width="31.7211538461538" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="21.1442307692308" customWidth="1"/>
-    <col min="7" max="7" width="16.1826923076923" customWidth="1"/>
-    <col min="8" max="8" width="15.7019230769231" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="19.7019230769231" customWidth="1"/>
+    <col min="2" max="2" width="22.4230769230769" customWidth="1"/>
+    <col min="3" max="3" width="31.7211538461538" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="21.1442307692308" customWidth="1"/>
+    <col min="6" max="6" width="16.1826923076923" customWidth="1"/>
+    <col min="7" max="7" width="15.7019230769231" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="12.6538461538462" customWidth="1"/>
+    <col min="14" max="14" width="14.9038461538462" customWidth="1"/>
+    <col min="15" max="15" width="10.0961538461538" customWidth="1"/>
+    <col min="16" max="16" width="28.0384615384615" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1730769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,6 +1287,275 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>55</v>
+      </c>
+      <c r="J2">
+        <v>2674.86</v>
+      </c>
+      <c r="P2" s="1">
+        <v>43099</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>39.27</v>
+      </c>
+      <c r="J3">
+        <v>2729.86</v>
+      </c>
+      <c r="P3" s="1">
+        <v>43098</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>88.88</v>
+      </c>
+      <c r="J4">
+        <v>2769.13</v>
+      </c>
+      <c r="P4" s="1">
+        <v>43093</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>6.66</v>
+      </c>
+      <c r="J5">
+        <v>2858.01</v>
+      </c>
+      <c r="P5" s="1">
+        <v>43093</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>8.88</v>
+      </c>
+      <c r="J6">
+        <v>2864.67</v>
+      </c>
+      <c r="P6" s="1">
+        <v>43093</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>8.88</v>
+      </c>
+      <c r="J7">
+        <v>2873.55</v>
+      </c>
+      <c r="P7" s="1">
+        <v>43093</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>86.5</v>
+      </c>
+      <c r="J8">
+        <v>2882.43</v>
+      </c>
+      <c r="P8" s="1">
+        <v>43093</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
